--- a/biology/Botanique/Géranium_blanc/Géranium_blanc.xlsx
+++ b/biology/Botanique/Géranium_blanc/Géranium_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_blanc</t>
+          <t>Géranium_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geranium rivulare
 Le Géranium blanc ou Géranium des ruisseaux (Geranium rivulare Vill), en allemand Blaßblütier Storchschnabel, en italien geranio dei rivi, est une plante herbacée de la famille des Géraniacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_blanc</t>
+          <t>Géranium_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace, aux tiges de 15 à 40 cm de hauteur aux feuilles découpées jusqu'à leur base en segments étroits.
-Les fleurs d'environ 15 mm sont de couleur blanche rayée de pourpre[1].
+Les fleurs d'environ 15 mm sont de couleur blanche rayée de pourpre.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_blanc</t>
+          <t>Géranium_blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Organes reproducteurs
 Couleur dominante des fleurs : blanche
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_blanc</t>
+          <t>Géranium_blanc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le géranium blanc est une plante des ruisseaux et des prairies humides de haute montagne.
 On la trouve dans les Alpes, en Suisse, au Tyrol en Italie et en France.
